--- a/야구K6_ItemTablev1.0.7.xlsx
+++ b/야구K6_ItemTablev1.0.7.xlsx
@@ -1161,6 +1161,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="M383" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>멀티</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량지급용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M389" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>멀티</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량지급용</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S394" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1685,7 +1777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="824">
   <si>
     <t>//</t>
   </si>
@@ -6588,10 +6680,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A404" sqref="A404:A410"/>
+      <selection pane="bottomLeft" activeCell="N397" sqref="N397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -34695,8 +34787,8 @@
       <c r="L383" s="22">
         <v>0</v>
       </c>
-      <c r="M383" s="28" t="s">
-        <v>246</v>
+      <c r="M383" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N383" s="22">
         <v>0</v>
@@ -34761,8 +34853,8 @@
       <c r="L384" s="22">
         <v>0</v>
       </c>
-      <c r="M384" s="28" t="s">
-        <v>246</v>
+      <c r="M384" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N384" s="22">
         <v>0</v>
@@ -34827,8 +34919,8 @@
       <c r="L385" s="22">
         <v>0</v>
       </c>
-      <c r="M385" s="28" t="s">
-        <v>246</v>
+      <c r="M385" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N385" s="22">
         <v>0</v>
@@ -34893,8 +34985,8 @@
       <c r="L386" s="22">
         <v>0</v>
       </c>
-      <c r="M386" s="28" t="s">
-        <v>246</v>
+      <c r="M386" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N386" s="22">
         <v>0</v>
@@ -34959,8 +35051,8 @@
       <c r="L387" s="22">
         <v>0</v>
       </c>
-      <c r="M387" s="28" t="s">
-        <v>246</v>
+      <c r="M387" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N387" s="22">
         <v>0</v>
@@ -35088,8 +35180,8 @@
       <c r="L389" s="46">
         <v>0</v>
       </c>
-      <c r="M389" s="28" t="s">
-        <v>246</v>
+      <c r="M389" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N389" s="46">
         <v>0</v>
@@ -35145,8 +35237,8 @@
       <c r="L390" s="46">
         <v>0</v>
       </c>
-      <c r="M390" s="28" t="s">
-        <v>246</v>
+      <c r="M390" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N390" s="46">
         <v>0</v>
@@ -35205,8 +35297,8 @@
       <c r="L391" s="46">
         <v>0</v>
       </c>
-      <c r="M391" s="28" t="s">
-        <v>246</v>
+      <c r="M391" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N391" s="46">
         <v>0</v>
@@ -35265,8 +35357,8 @@
       <c r="L392" s="46">
         <v>0</v>
       </c>
-      <c r="M392" s="28" t="s">
-        <v>246</v>
+      <c r="M392" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N392" s="46">
         <v>0</v>
@@ -35325,8 +35417,8 @@
       <c r="L393" s="46">
         <v>0</v>
       </c>
-      <c r="M393" s="28" t="s">
-        <v>246</v>
+      <c r="M393" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N393" s="46">
         <v>0</v>
@@ -35463,8 +35555,8 @@
       <c r="L395" s="46">
         <v>0</v>
       </c>
-      <c r="M395" s="28" t="s">
-        <v>246</v>
+      <c r="M395" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N395" s="46">
         <v>0</v>
@@ -35600,8 +35692,8 @@
       <c r="L397" s="48">
         <v>0</v>
       </c>
-      <c r="M397" s="48">
-        <v>0</v>
+      <c r="M397" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N397" s="46">
         <v>0</v>
@@ -35653,8 +35745,8 @@
       <c r="L398" s="48">
         <v>0</v>
       </c>
-      <c r="M398" s="48">
-        <v>0</v>
+      <c r="M398" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N398" s="46">
         <v>0</v>
@@ -35776,8 +35868,8 @@
       <c r="L400" s="48">
         <v>0</v>
       </c>
-      <c r="M400" s="48">
-        <v>0</v>
+      <c r="M400" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N400" s="46">
         <v>0</v>
@@ -35836,8 +35928,8 @@
       <c r="L401" s="48">
         <v>0</v>
       </c>
-      <c r="M401" s="48">
-        <v>0</v>
+      <c r="M401" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N401" s="46">
         <v>0</v>
@@ -35896,8 +35988,8 @@
       <c r="L402" s="48">
         <v>0</v>
       </c>
-      <c r="M402" s="48">
-        <v>0</v>
+      <c r="M402" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="N402" s="46">
         <v>0</v>
